--- a/data/statistical/filled_NaN_xlsx/西藏自治区_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/西藏自治区_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>55.9368</v>
       </c>
       <c r="E2">
-        <v>3263.260712325573</v>
+        <v>3263.260713785887</v>
       </c>
       <c r="F2">
         <v>6952.44</v>
@@ -609,85 +609,85 @@
         <v>12.76</v>
       </c>
       <c r="H2">
-        <v>35.81406875566757</v>
+        <v>29.72566918734708</v>
       </c>
       <c r="I2">
-        <v>4.03266011096639</v>
+        <v>4.032660110900906</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0.7685293570975773</v>
       </c>
       <c r="K2">
-        <v>4.603782003686493</v>
+        <v>9.205182491067664</v>
       </c>
       <c r="L2">
-        <v>0.09157755653268396</v>
+        <v>0.09157755651995103</v>
       </c>
       <c r="M2">
-        <v>4.765353856375441</v>
+        <v>4.765353856346337</v>
       </c>
       <c r="N2">
-        <v>675.5924019478261</v>
+        <v>675.5924019422382</v>
       </c>
       <c r="O2">
-        <v>25.75156862009317</v>
+        <v>25.75156862940639</v>
       </c>
       <c r="P2">
-        <v>1027.444019936079</v>
+        <v>1203.827518266314</v>
       </c>
       <c r="Q2">
-        <v>93.88665327062243</v>
+        <v>96.98153627623601</v>
       </c>
       <c r="R2">
-        <v>45.67591588874348</v>
+        <v>45.67591588292271</v>
       </c>
       <c r="S2">
-        <v>1040.391225785017</v>
+        <v>1040.391225904226</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.331477450869027</v>
+        <v>2.701021854124703</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-462.2548487912863</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-160.5549505297095</v>
       </c>
       <c r="X2">
         <v>45</v>
       </c>
       <c r="Y2">
-        <v>40.40467584715225</v>
+        <v>40.40467583760619</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-6830.704079627991</v>
       </c>
       <c r="AA2">
-        <v>1.60787576796056</v>
+        <v>135.5877735614056</v>
       </c>
       <c r="AB2">
-        <v>4499.831995487213</v>
+        <v>2492325.479743958</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1956044.091041565</v>
       </c>
       <c r="AD2">
-        <v>158.1486014099792</v>
+        <v>891.3286719769239</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>135145.3927989006</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-2634.444762304425</v>
       </c>
       <c r="AG2">
-        <v>1624</v>
+        <v>26962.40088582039</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>71152.94494461622</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>11.1</v>
       </c>
       <c r="H3">
-        <v>35.55777324035278</v>
+        <v>29.74395110463866</v>
       </c>
       <c r="I3">
         <v>3.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0.5402313882368617</v>
       </c>
       <c r="K3">
         <v>5.28848696387963</v>
@@ -743,7 +743,7 @@
         <v>94.43000000000001</v>
       </c>
       <c r="R3">
-        <v>38.47049019369297</v>
+        <v>38.47049018763937</v>
       </c>
       <c r="S3">
         <v>377.7</v>
@@ -755,43 +755,43 @@
         <v>0.17</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-402.6481820838526</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-107.2765346877277</v>
       </c>
       <c r="X3">
         <v>45</v>
       </c>
       <c r="Y3">
-        <v>33.27985990932211</v>
+        <v>33.27985990024172</v>
       </c>
       <c r="Z3">
-        <v>3008.583326339722</v>
+        <v>3008.583330631256</v>
       </c>
       <c r="AA3">
-        <v>1.391142576466407</v>
+        <v>138.759852595199</v>
       </c>
       <c r="AB3">
-        <v>3721.452624619007</v>
+        <v>2197345.007278442</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1727294.444519043</v>
       </c>
       <c r="AD3">
-        <v>140.6486014076509</v>
+        <v>651.5384620279074</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>118907.4012846947</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-2113.550476521254</v>
       </c>
       <c r="AG3">
-        <v>1624</v>
+        <v>22801.60193300247</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>92395.48301674001</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>11.2</v>
       </c>
       <c r="H4">
-        <v>31.98667428468013</v>
+        <v>27.90885049340203</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0.05501832836307585</v>
       </c>
       <c r="K4">
         <v>4.53844059181265</v>
@@ -847,7 +847,7 @@
         <v>93.23999999999999</v>
       </c>
       <c r="R4">
-        <v>32.0204411749728</v>
+        <v>32.02044116938487</v>
       </c>
       <c r="S4">
         <v>390</v>
@@ -859,43 +859,43 @@
         <v>0.24</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-346.4187881052494</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-59.27811884507537</v>
       </c>
       <c r="X4">
         <v>45</v>
       </c>
       <c r="Y4">
-        <v>26.97876649932005</v>
+        <v>26.97876649047248</v>
       </c>
       <c r="Z4">
         <v>24803</v>
       </c>
       <c r="AA4">
-        <v>2.218034759596097</v>
+        <v>114.7074350205713</v>
       </c>
       <c r="AB4">
-        <v>3032.008668333292</v>
+        <v>1924363.495628357</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1516797.00063324</v>
       </c>
       <c r="AD4">
-        <v>124.7025474593975</v>
+        <v>476.7382620871067</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>103691.1325948238</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>-1638.446666941047</v>
       </c>
       <c r="AG4">
-        <v>1624</v>
+        <v>19053.83260047436</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>180031.6008264275</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -924,10 +924,10 @@
         <v>20.85</v>
       </c>
       <c r="I5">
-        <v>3.659078021371897</v>
+        <v>3.659078021328241</v>
       </c>
       <c r="J5">
-        <v>0.6871098226984031</v>
+        <v>0.6871098225819878</v>
       </c>
       <c r="K5">
         <v>18.0908360128617</v>
@@ -963,43 +963,43 @@
         <v>0.19</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-293.5666668564081</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-16.5597030017525</v>
       </c>
       <c r="X5">
         <v>45</v>
       </c>
       <c r="Y5">
-        <v>21.50139561714604</v>
+        <v>21.50139560829848</v>
       </c>
       <c r="Z5">
         <v>13488</v>
       </c>
       <c r="AA5">
-        <v>2.118162962376088</v>
+        <v>97.68796997828355</v>
       </c>
       <c r="AB5">
-        <v>2431.500126570463</v>
+        <v>1673380.944763184</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1324551.759407043</v>
       </c>
       <c r="AD5">
-        <v>110.310439565219</v>
+        <v>366.9280721396208</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>89496.58673048019</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-1209.133333548903</v>
       </c>
       <c r="AG5">
-        <v>1624</v>
+        <v>15719.09288871288</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>46312.76932374189</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1028,7 +1028,7 @@
         <v>21.13</v>
       </c>
       <c r="I6">
-        <v>3.547160518570308</v>
+        <v>3.547160518535748</v>
       </c>
       <c r="J6">
         <v>2.6236</v>
@@ -1058,7 +1058,7 @@
         <v>14.88</v>
       </c>
       <c r="S6">
-        <v>212.5949656069279</v>
+        <v>212.5949657857418</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0.59</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-244.0918183373287</v>
       </c>
       <c r="W6">
         <v>9.699999999999999</v>
@@ -1076,34 +1076,34 @@
         <v>45</v>
       </c>
       <c r="Y6">
-        <v>16.84774726280011</v>
+        <v>16.84774725418538</v>
       </c>
       <c r="Z6">
         <v>21916</v>
       </c>
       <c r="AA6">
-        <v>2.170891171654591</v>
+        <v>107.1274628266857</v>
       </c>
       <c r="AB6">
-        <v>1919.926999479532</v>
+        <v>1444397.354690552</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1150558.720832825</v>
       </c>
       <c r="AD6">
-        <v>97.47227772511542</v>
+        <v>322.1078922152519</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>76323.76369094849</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>-825.610476359725</v>
       </c>
       <c r="AG6">
-        <v>1624</v>
+        <v>12797.38279724121</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>47839.14848130928</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1132,7 +1132,7 @@
         <v>72.16</v>
       </c>
       <c r="I7">
-        <v>3.441547945965794</v>
+        <v>3.441547945940329</v>
       </c>
       <c r="J7">
         <v>3.8461</v>
@@ -1171,7 +1171,7 @@
         <v>0.15</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-197.9942425508052</v>
       </c>
       <c r="W7">
         <v>66.7</v>
@@ -1186,28 +1186,28 @@
         <v>30985</v>
       </c>
       <c r="AA7">
-        <v>1.304746111902962</v>
+        <v>135.0302656549995</v>
       </c>
       <c r="AB7">
-        <v>1497.289287000895</v>
+        <v>1237412.725418091</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>994817.8849182129</v>
       </c>
       <c r="AD7">
-        <v>86.18806193955243</v>
+        <v>342.2777223140001</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>64172.66347622871</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-487.8780953735113</v>
       </c>
       <c r="AG7">
-        <v>1624</v>
+        <v>10288.70232653618</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>161078.9777533401</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1236,7 +1236,7 @@
         <v>21.9</v>
       </c>
       <c r="I8">
-        <v>3.342240303561994</v>
+        <v>3.342240303541985</v>
       </c>
       <c r="J8">
         <v>4.8671</v>
@@ -1275,10 +1275,10 @@
         <v>0.05</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-155.2739394931123</v>
       </c>
       <c r="W8">
-        <v>79.91554456576705</v>
+        <v>79.91554453223944</v>
       </c>
       <c r="X8">
         <v>45</v>
@@ -1290,28 +1290,28 @@
         <v>31334</v>
       </c>
       <c r="AA8">
-        <v>2.545418542615907</v>
+        <v>127.4164748814152</v>
       </c>
       <c r="AB8">
-        <v>1163.586989104748</v>
+        <v>1052427.056930542</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>857329.2516326904</v>
       </c>
       <c r="AD8">
-        <v>76.45779220806435</v>
+        <v>427.4375623911619</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>53043.2860865593</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>-195.9361905604601</v>
       </c>
       <c r="AG8">
-        <v>1624</v>
+        <v>8193.051476359367</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>167935.4367273032</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1379,10 +1379,10 @@
         <v>0.61</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-115.9309091651812</v>
       </c>
       <c r="W9">
-        <v>101.5139604061842</v>
+        <v>101.5139603801072</v>
       </c>
       <c r="X9">
         <v>45</v>
@@ -1394,28 +1394,28 @@
         <v>70299</v>
       </c>
       <c r="AA9">
-        <v>2.582439691611308</v>
+        <v>102.294330106642</v>
       </c>
       <c r="AB9">
-        <v>918.8201057612896</v>
+        <v>889440.3492507935</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>738092.8210144043</v>
       </c>
       <c r="AD9">
-        <v>68.28146853065118</v>
+        <v>577.5874124765396</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>42935.63152122498</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>50.21523803472519</v>
       </c>
       <c r="AG9">
-        <v>1624</v>
+        <v>6510.430246472359</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>197870.4552385701</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1483,10 +1483,10 @@
         <v>0.06</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-79.96515156794339</v>
       </c>
       <c r="W10">
-        <v>117.8323762454093</v>
+        <v>117.8323762267828</v>
       </c>
       <c r="X10">
         <v>45</v>
@@ -1498,28 +1498,28 @@
         <v>62299</v>
       </c>
       <c r="AA10">
-        <v>1.343794457366513</v>
+        <v>144.8129672835465</v>
       </c>
       <c r="AB10">
-        <v>762.988637059927</v>
+        <v>748452.6023483276</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>637108.5930480957</v>
       </c>
       <c r="AD10">
-        <v>61.65909090731293</v>
+        <v>792.727272555232</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>33849.69978117943</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>250.5761904418468</v>
       </c>
       <c r="AG10">
-        <v>1624</v>
+        <v>5240.83863735199</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>153174.42227459</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1587,10 +1587,10 @@
         <v>4.66</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-47.37666670233011</v>
       </c>
       <c r="W11">
-        <v>128.8707920834422</v>
+        <v>128.8707920722663</v>
       </c>
       <c r="X11">
         <v>45</v>
@@ -1602,28 +1602,28 @@
         <v>46705</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AB11">
-        <v>624</v>
+        <v>576975</v>
       </c>
       <c r="AC11">
-        <v>38</v>
+        <v>545301</v>
       </c>
       <c r="AD11">
-        <v>57</v>
+        <v>959</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>46887</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="AG11">
-        <v>1624</v>
+        <v>1521</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>100955</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1694,7 +1694,7 @@
         <v>0.1</v>
       </c>
       <c r="W12">
-        <v>134.6292079221457</v>
+        <v>134.6292079184204</v>
       </c>
       <c r="X12">
         <v>45</v>
@@ -1706,28 +1706,28 @@
         <v>72432</v>
       </c>
       <c r="AA12">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="AB12">
-        <v>196</v>
+        <v>471169</v>
       </c>
       <c r="AC12">
-        <v>198</v>
+        <v>380210</v>
       </c>
       <c r="AD12">
-        <v>69</v>
+        <v>1580</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AG12">
-        <v>1624</v>
+        <v>1702</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>106461</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1798,7 +1798,7 @@
         <v>0.1</v>
       </c>
       <c r="W13">
-        <v>135.1076237596571</v>
+        <v>135.1076237652451</v>
       </c>
       <c r="X13">
         <v>45</v>
@@ -1810,28 +1810,28 @@
         <v>69629</v>
       </c>
       <c r="AA13">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="AB13">
-        <v>1454</v>
+        <v>533576</v>
       </c>
       <c r="AC13">
-        <v>520</v>
+        <v>537321</v>
       </c>
       <c r="AD13">
-        <v>27</v>
+        <v>1780</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>3056</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="AG13">
-        <v>1624</v>
+        <v>6376</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>68445</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1902,7 +1902,7 @@
         <v>16.1</v>
       </c>
       <c r="W14">
-        <v>130.3060395978391</v>
+        <v>130.3060396127403</v>
       </c>
       <c r="X14">
         <v>45</v>
@@ -1914,28 +1914,28 @@
         <v>82668</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="AB14">
-        <v>1728</v>
+        <v>533110</v>
       </c>
       <c r="AC14">
-        <v>1494</v>
+        <v>487834</v>
       </c>
       <c r="AD14">
-        <v>44</v>
+        <v>2050</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>5371</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="AG14">
-        <v>1624</v>
+        <v>13253</v>
       </c>
       <c r="AH14">
-        <v>73</v>
+        <v>294995</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2006,7 +2006,7 @@
         <v>19.1</v>
       </c>
       <c r="W15">
-        <v>120.224455434829</v>
+        <v>120.224455460906</v>
       </c>
       <c r="X15">
         <v>45</v>
@@ -2018,28 +2018,28 @@
         <v>82786</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AB15">
-        <v>1464</v>
+        <v>391401</v>
       </c>
       <c r="AC15">
-        <v>1631</v>
+        <v>436090</v>
       </c>
       <c r="AD15">
-        <v>63</v>
+        <v>3018</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AG15">
-        <v>1624</v>
+        <v>3328</v>
       </c>
       <c r="AH15">
-        <v>92</v>
+        <v>98811</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>55277</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AB16">
-        <v>1972</v>
+        <v>361213</v>
       </c>
       <c r="AC16">
-        <v>1544</v>
+        <v>415614</v>
       </c>
       <c r="AD16">
-        <v>67</v>
+        <v>3459</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>790.288663625717</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="AG16">
-        <v>1624</v>
+        <v>2283</v>
       </c>
       <c r="AH16">
-        <v>140</v>
+        <v>104665</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>37.8417</v>
       </c>
       <c r="K17">
-        <v>5.64590328472153</v>
+        <v>4.674470918628455</v>
       </c>
       <c r="L17">
-        <v>0.2247549956136936</v>
+        <v>0.224754995625517</v>
       </c>
       <c r="M17">
         <v>2.30906538919232</v>
@@ -2226,28 +2226,28 @@
         <v>82667</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="AB17">
-        <v>625.3</v>
+        <v>307730.7</v>
       </c>
       <c r="AC17">
-        <v>1505.8</v>
+        <v>417891.4</v>
       </c>
       <c r="AD17">
-        <v>46</v>
+        <v>4702</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>13396</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="AG17">
-        <v>1624</v>
+        <v>10780</v>
       </c>
       <c r="AH17">
-        <v>12</v>
+        <v>96743</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>47.3</v>
       </c>
       <c r="K18">
-        <v>10.24202553821189</v>
+        <v>6.160743348763187</v>
       </c>
       <c r="L18">
-        <v>0.2639146809442536</v>
+        <v>0.2639146809588055</v>
       </c>
       <c r="M18">
         <v>2.40249588868661</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.3651423116606733</v>
+        <v>1.56687767867225</v>
       </c>
       <c r="V18">
         <v>90.09999999999999</v>
       </c>
       <c r="W18">
-        <v>58.29970294609666</v>
+        <v>58.29970301128924</v>
       </c>
       <c r="X18">
         <v>45</v>
@@ -2330,28 +2330,28 @@
         <v>75039</v>
       </c>
       <c r="AA18">
-        <v>1.91908212363223</v>
+        <v>118</v>
       </c>
       <c r="AB18">
-        <v>1254.7</v>
+        <v>412808.3</v>
       </c>
       <c r="AC18">
-        <v>2702.6</v>
+        <v>468682.2</v>
       </c>
       <c r="AD18">
-        <v>67</v>
+        <v>4943</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="AG18">
-        <v>1624</v>
+        <v>10411</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>163114.2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>54.4233</v>
       </c>
       <c r="E19">
-        <v>13376.06071448326</v>
+        <v>13376.06071257591</v>
       </c>
       <c r="F19">
         <v>25636.6863</v>
@@ -2386,10 +2386,10 @@
         <v>32.9</v>
       </c>
       <c r="K19">
-        <v>8.390344639849101</v>
+        <v>9.002698855180515</v>
       </c>
       <c r="L19">
-        <v>0.3068595149479734</v>
+        <v>0.3068595149652538</v>
       </c>
       <c r="M19">
         <v>1.98607626250133</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1.764321213369135</v>
+        <v>2.567956503725693</v>
       </c>
       <c r="V19">
         <v>94.90000000000001</v>
       </c>
       <c r="W19">
-        <v>27.09811878204346</v>
+        <v>27.0981188621372</v>
       </c>
       <c r="X19">
         <v>45</v>
@@ -2434,28 +2434,28 @@
         <v>87124</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB19">
-        <v>3962.5</v>
+        <v>375000.4</v>
       </c>
       <c r="AC19">
-        <v>3830</v>
+        <v>477106</v>
       </c>
       <c r="AD19">
-        <v>74</v>
+        <v>4879</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>-1946.158760070801</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AG19">
-        <v>1624</v>
+        <v>6891.6</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>54253.7</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>54.5</v>
       </c>
       <c r="E20">
-        <v>14882.81155461073</v>
+        <v>14882.81155246496</v>
       </c>
       <c r="F20">
         <v>24927.3799</v>
@@ -2490,10 +2490,10 @@
         <v>40.9133</v>
       </c>
       <c r="K20">
-        <v>9.365971575395804</v>
+        <v>9.745002264945411</v>
       </c>
       <c r="L20">
-        <v>0.3535894976266718</v>
+        <v>0.3535894976457712</v>
       </c>
       <c r="M20">
         <v>2.9788620620789</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.345978467724145</v>
+        <v>0.3307637555261156</v>
       </c>
       <c r="V20">
         <v>96.3</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-9.383465288206935</v>
       </c>
       <c r="X20">
         <v>45</v>
@@ -2538,28 +2538,28 @@
         <v>96986</v>
       </c>
       <c r="AA20">
-        <v>2.21018946852156</v>
+        <v>119</v>
       </c>
       <c r="AB20">
-        <v>4626</v>
+        <v>506433</v>
       </c>
       <c r="AC20">
-        <v>4253</v>
+        <v>582739</v>
       </c>
       <c r="AD20">
-        <v>85</v>
+        <v>6432</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-264.2904762625694</v>
       </c>
       <c r="AG20">
-        <v>1624</v>
+        <v>16173</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>90796</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>55.7055</v>
       </c>
       <c r="E21">
-        <v>16490.88242268562</v>
+        <v>16490.88242036104</v>
       </c>
       <c r="F21">
         <v>28159.2</v>
@@ -2594,25 +2594,25 @@
         <v>43.9488</v>
       </c>
       <c r="K21">
-        <v>7.090734000710897</v>
+        <v>9.251624440444814</v>
       </c>
       <c r="L21">
-        <v>0.4041046289785299</v>
+        <v>0.4041046289985388</v>
       </c>
       <c r="M21">
         <v>1.07683361689952</v>
       </c>
       <c r="N21">
-        <v>375.6492646746337</v>
+        <v>375.6492646671832</v>
       </c>
       <c r="O21">
-        <v>111.1658823518082</v>
+        <v>111.1658823397011</v>
       </c>
       <c r="P21">
         <v>2155.8</v>
       </c>
       <c r="Q21">
-        <v>94.40350175439028</v>
+        <v>94.55085370271182</v>
       </c>
       <c r="R21">
         <v>38.1</v>
@@ -2624,46 +2624,46 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1.154631113768042</v>
+        <v>1.410107362974699</v>
       </c>
       <c r="V21">
         <v>83.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-51.14504943788052</v>
       </c>
       <c r="X21">
         <v>45</v>
       </c>
       <c r="Y21">
-        <v>45.88972527720034</v>
+        <v>45.88972528954037</v>
       </c>
       <c r="Z21">
         <v>70563</v>
       </c>
       <c r="AA21">
-        <v>1.391063747897027</v>
+        <v>126</v>
       </c>
       <c r="AB21">
-        <v>7715</v>
+        <v>736018</v>
       </c>
       <c r="AC21">
-        <v>8249</v>
+        <v>791865</v>
       </c>
       <c r="AD21">
-        <v>86</v>
+        <v>7473</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-567.6247620135546</v>
       </c>
       <c r="AG21">
-        <v>1624</v>
+        <v>13517</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>187496</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>53.8</v>
       </c>
       <c r="E22">
-        <v>18200.27331882715</v>
+        <v>18200.27331614494</v>
       </c>
       <c r="F22">
         <v>28265.3785</v>
@@ -2692,34 +2692,34 @@
         <v>37.39</v>
       </c>
       <c r="I22">
-        <v>2.613950980789014</v>
+        <v>2.613950980803565</v>
       </c>
       <c r="J22">
         <v>52.61129732156405</v>
       </c>
       <c r="K22">
-        <v>6.49467237715072</v>
+        <v>3.586912239139742</v>
       </c>
       <c r="L22">
-        <v>0.4584049090053668</v>
+        <v>0.4584049090271947</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-0.1408593783562537</v>
       </c>
       <c r="N22">
-        <v>420.3342749886215</v>
+        <v>420.334274975583</v>
       </c>
       <c r="O22">
-        <v>129.6551805972122</v>
+        <v>129.655180583708</v>
       </c>
       <c r="P22">
-        <v>1368.095341670846</v>
+        <v>1371.178271812028</v>
       </c>
       <c r="Q22">
-        <v>94.64895675789684</v>
+        <v>98.0274007087606</v>
       </c>
       <c r="R22">
-        <v>45.08897058013827</v>
+        <v>45.08897059247829</v>
       </c>
       <c r="S22">
         <v>8188</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1.501430656067996</v>
+        <v>2.766218336317184</v>
       </c>
       <c r="V22">
-        <v>88.19666666164994</v>
+        <v>88.19666663650423</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-98.18663358688354</v>
       </c>
       <c r="X22">
         <v>45</v>
       </c>
       <c r="Y22">
-        <v>54.41563736717217</v>
+        <v>54.41563738160767</v>
       </c>
       <c r="Z22">
-        <v>80009.60294270515</v>
+        <v>80009.60294365883</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="AB22">
-        <v>3752</v>
+        <v>786574.3</v>
       </c>
       <c r="AC22">
-        <v>3328.6</v>
+        <v>871681.5</v>
       </c>
       <c r="AD22">
-        <v>104</v>
+        <v>8675</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>313.2</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-916.7495239526033</v>
       </c>
       <c r="AG22">
-        <v>1624</v>
+        <v>27969.1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>142483.2</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2781,97 +2781,97 @@
         <v>60000</v>
       </c>
       <c r="D23">
-        <v>52.95205714207259</v>
+        <v>52.95205714262556</v>
       </c>
       <c r="E23">
-        <v>20010.9842428565</v>
+        <v>20010.98423990607</v>
       </c>
       <c r="F23">
-        <v>33001.62020242214</v>
+        <v>33001.62020257115</v>
       </c>
       <c r="G23">
-        <v>9.039714285525406</v>
+        <v>9.039714285450827</v>
       </c>
       <c r="H23">
-        <v>26.28360756265787</v>
+        <v>27.19288462989544</v>
       </c>
       <c r="I23">
-        <v>2.609217291364985</v>
+        <v>2.609217291379537</v>
       </c>
       <c r="J23">
-        <v>57.97789711173391</v>
+        <v>57.97789711161749</v>
       </c>
       <c r="K23">
-        <v>7.845640338413673</v>
+        <v>5.932477463323599</v>
       </c>
       <c r="L23">
-        <v>0.5164903377044539</v>
+        <v>0.5164903377290102</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.087691456225002</v>
       </c>
       <c r="N23">
-        <v>471.0664344206452</v>
+        <v>471.0664344094694</v>
       </c>
       <c r="O23">
-        <v>149.54385964619</v>
+        <v>149.5438596312888</v>
       </c>
       <c r="P23">
-        <v>855.9424648268513</v>
+        <v>1279.938595990363</v>
       </c>
       <c r="Q23">
-        <v>97.04295713857822</v>
+        <v>96.86305822854108</v>
       </c>
       <c r="R23">
-        <v>52.99107842077501</v>
+        <v>52.991078435909</v>
       </c>
       <c r="S23">
-        <v>10623.71699631214</v>
+        <v>10623.71699604392</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1.370027370154258</v>
+        <v>1.517551284261161</v>
       </c>
       <c r="V23">
-        <v>80.25787877384573</v>
+        <v>80.2578787393868</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-150.508217735216</v>
       </c>
       <c r="X23">
         <v>45</v>
       </c>
       <c r="Y23">
-        <v>63.76527198473923</v>
+        <v>63.7652720012702</v>
       </c>
       <c r="Z23">
-        <v>78275.68601775169</v>
+        <v>78275.68601942062</v>
       </c>
       <c r="AA23">
-        <v>2.598058158140867</v>
+        <v>130.0544890841916</v>
       </c>
       <c r="AB23">
-        <v>6830.302272468805</v>
+        <v>917517.325088501</v>
       </c>
       <c r="AC23">
-        <v>6434.463636800647</v>
+        <v>985264.0706939697</v>
       </c>
       <c r="AD23">
-        <v>116.977272735443</v>
+        <v>9503.636364251375</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>8709.364224672318</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-1311.664762094617</v>
       </c>
       <c r="AG23">
-        <v>1624</v>
+        <v>26321.84318518639</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>82219.67110855099</v>
       </c>
     </row>
   </sheetData>
